--- a/01-lab/results/excel/newton_method.xlsx
+++ b/01-lab/results/excel/newton_method.xlsx
@@ -17,6 +17,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">x_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 iteracija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 iteracija</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -91,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -102,6 +137,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
@@ -228,16 +271,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="3" width="11.71" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="1" max="1" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="14.41" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="11.71" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="4" max="4" width="12.71" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="5" max="5" width="9.71" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
     <col min="6" max="11" width="12.71" style="2" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
@@ -254,49 +298,129 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>5</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>3.3783783783783785</v>
       </c>
+      <c r="B2" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2.320008885077228</v>
       </c>
+      <c r="B3" s="4" t="n">
+        <v>3.37837837837838</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1.6487812280309717</v>
       </c>
+      <c r="B4" s="4" t="n">
+        <v>2.32000888507723</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1.2528031537556461</v>
       </c>
+      <c r="B5" s="4" t="n">
+        <v>1.64878122803097</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>1.0604121514975322</v>
       </c>
+      <c r="B6" s="4" t="n">
+        <v>1.25280315375565</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>1.0047989143538689</v>
       </c>
+      <c r="B7" s="4" t="n">
+        <v>1.06041215149753</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>1.0000341618854527</v>
       </c>
+      <c r="B8" s="4" t="n">
+        <v>1.00479891435387</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>1.000000001750412</v>
       </c>
+      <c r="B9" s="4" t="n">
+        <v>1.00003416188545</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1.00000000175041</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>

--- a/01-lab/results/excel/newton_method.xlsx
+++ b/01-lab/results/excel/newton_method.xlsx
@@ -139,7 +139,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,7 +274,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
